--- a/templates/dataplant/MetaboLights_-_Chromatography.xlsx
+++ b/templates/dataplant/MetaboLights_-_Chromatography.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -83,28 +83,22 @@
     <t>Metabolomics</t>
   </si>
   <si>
-    <t>Gas Chromatography</t>
-  </si>
-  <si>
-    <t>Liquid Chromatography</t>
-  </si>
-  <si>
     <t>metabolite</t>
   </si>
   <si>
+    <t>Chromatography</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C49019</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C30014</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16435</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/MS_1003036</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16431</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
@@ -611,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -701,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -714,114 +708,105 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -837,108 +822,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>64</v>
-      </c>
-      <c r="P1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/MetaboLights_-_Chromatography.xlsx
+++ b/templates/dataplant/MetaboLights_-_Chromatography.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Template with the chromatography protocol information for GC- or LC-MS analyses for submission to MetaboLights.</t>
+    <t>Template with the extraction and chromatography protocol information for GC- or LC-MS analyses for submission to MetaboLights.</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -168,6 +168,27 @@
   </si>
   <si>
     <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>Parameter [solvent extraction]</t>
+  </si>
+  <si>
+    <t>Term Source REF (CHMO:0001598)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (CHMO:0001598)</t>
+  </si>
+  <si>
+    <t>Parameter [derivatisation]</t>
+  </si>
+  <si>
+    <t>Term Source REF (CHMO:0001485)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (CHMO:0001485)</t>
   </si>
   <si>
     <t>Parameter [chromatography instrument]</t>
@@ -265,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Q2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:Q2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:X2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:X2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -284,25 +305,39 @@
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="17">
+  <tableColumns count="24">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [chromatography instrument]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (OBI:0000485)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (OBI:0000485)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [chromatography column model]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000048)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000048)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [chromatography column type]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:0000053)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:0000053)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [label]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (CHEBI:35209)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (CHEBI:35209)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Parameter [solvent extraction]" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Source REF (CHMO:0001598)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Accession Number (CHMO:0001598)" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Parameter [derivatisation]" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Source REF (CHMO:0001485)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Accession Number (CHMO:0001485)" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Parameter [chromatography instrument]" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Source REF (OBI:0000485)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Accession Number (OBI:0000485)" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Parameter [chromatography column model]" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Source REF (DPBO:0000048)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Term Accession Number (DPBO:0000048)" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Parameter [chromatography column type]" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Source REF (DPBO:0000053)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Term Accession Number (DPBO:0000053)" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Parameter [label]" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Source REF (CHEBI:35209)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Term Accession Number (CHEBI:35209)" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Output [Raw Data File]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -817,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:X2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -872,58 +907,100 @@
       <c r="Q1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
